--- a/data/tumor-size/AOT00044154-mimic05/AOT00044154_size-measurements.xlsx
+++ b/data/tumor-size/AOT00044154-mimic05/AOT00044154_size-measurements.xlsx
@@ -1,35 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25412"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wil407\Box Sync\mimic\data\AOT00044154-mimic05\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A445660B-D1C6-4ED4-B6B4-D0D1CAFF0CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>tail.number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cage </t>
+  </si>
+  <si>
+    <t>Treatment</t>
   </si>
   <si>
     <t>microbiome.sample</t>
@@ -38,19 +55,13 @@
     <t>weight.(g)</t>
   </si>
   <si>
+    <t>tumor.number</t>
+  </si>
+  <si>
     <t>tumor.length.(mm)</t>
   </si>
   <si>
     <t>tumor.width.(mm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cage </t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>tumor.number</t>
   </si>
   <si>
     <t>102v3</t>
@@ -71,8 +82,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,18 +92,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,17 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,23 +397,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L94" sqref="L94"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,28 +421,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>44503</v>
       </c>
@@ -456,7 +456,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>44503</v>
       </c>
@@ -470,7 +470,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>44503</v>
       </c>
@@ -484,7 +484,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>44503</v>
       </c>
@@ -498,7 +498,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>44503</v>
       </c>
@@ -512,7 +512,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>44503</v>
       </c>
@@ -526,7 +526,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>44503</v>
       </c>
@@ -540,7 +540,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>44503</v>
       </c>
@@ -554,7 +554,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>44503</v>
       </c>
@@ -568,7 +568,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>44503</v>
       </c>
@@ -582,7 +582,7 @@
         <v>22.16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>44503</v>
       </c>
@@ -596,7 +596,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>44503</v>
       </c>
@@ -610,7 +610,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>44519</v>
       </c>
@@ -624,7 +624,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>44519</v>
       </c>
@@ -638,7 +638,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>44519</v>
       </c>
@@ -652,7 +652,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>44519</v>
       </c>
@@ -666,7 +666,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>44519</v>
       </c>
@@ -680,7 +680,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>44519</v>
       </c>
@@ -694,7 +694,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>44519</v>
       </c>
@@ -708,7 +708,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>44519</v>
       </c>
@@ -722,7 +722,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>44519</v>
       </c>
@@ -736,7 +736,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>44519</v>
       </c>
@@ -750,7 +750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>44519</v>
       </c>
@@ -764,7 +764,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>44519</v>
       </c>
@@ -778,7 +778,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>44522</v>
       </c>
@@ -792,7 +792,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>44522</v>
       </c>
@@ -806,7 +806,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>44522</v>
       </c>
@@ -820,7 +820,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>44522</v>
       </c>
@@ -834,7 +834,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>44522</v>
       </c>
@@ -848,7 +848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>44522</v>
       </c>
@@ -862,7 +862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>44522</v>
       </c>
@@ -876,7 +876,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>44522</v>
       </c>
@@ -890,7 +890,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>44522</v>
       </c>
@@ -904,7 +904,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>44522</v>
       </c>
@@ -918,7 +918,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>44522</v>
       </c>
@@ -932,7 +932,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>44522</v>
       </c>
@@ -946,7 +946,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>44529</v>
       </c>
@@ -969,7 +969,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>44529</v>
       </c>
@@ -992,7 +992,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>44529</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>44529</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>44529</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>44529</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>44529</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>44529</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>44529</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>44529</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>44529</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>44529</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>44529</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>44529</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>44531</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>44531</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>44531</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>44531</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>44531</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>44531</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>44531</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>44531</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>44531</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>44531</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>44531</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>44531</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>44531</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>44534</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>44534</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>44534</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>44534</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>44534</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>44534</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>44534</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>44534</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>44534</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>44534</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>44534</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>44534</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>44534</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>44537</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>44537</v>
       </c>
@@ -1981,34 +1981,33 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="3">
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
         <v>44537</v>
       </c>
-      <c r="B80" s="4">
-        <v>3</v>
-      </c>
-      <c r="C80" s="5">
-        <v>1</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="5" t="s">
+      <c r="B80" s="2">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
         <v>12</v>
       </c>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5">
-        <v>1</v>
-      </c>
-      <c r="H80" s="5">
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
         <v>4.3</v>
       </c>
-      <c r="I80" s="5">
+      <c r="I80">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>44537</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>44537</v>
       </c>
@@ -2060,7 +2059,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>44537</v>
       </c>
@@ -2086,7 +2085,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>44537</v>
       </c>
@@ -2112,7 +2111,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>44537</v>
       </c>
@@ -2138,7 +2137,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>44537</v>
       </c>
@@ -2164,7 +2163,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>44537</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>44537</v>
       </c>
@@ -2216,7 +2215,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>44537</v>
       </c>
@@ -2239,7 +2238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>44537</v>
       </c>
@@ -2263,6 +2262,1064 @@
       </c>
       <c r="I90">
         <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92">
+        <v>21.8</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>10.4</v>
+      </c>
+      <c r="I92">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B93" s="2">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93">
+        <v>23.1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94">
+        <v>24.1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>12.8</v>
+      </c>
+      <c r="I94">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95">
+        <v>23.4</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>7.3</v>
+      </c>
+      <c r="I95">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <v>5.9</v>
+      </c>
+      <c r="I96">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B97" s="2">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97">
+        <v>23.8</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>5.5</v>
+      </c>
+      <c r="I97">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98">
+        <v>23.7</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>12.5</v>
+      </c>
+      <c r="I98">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99">
+        <v>22.7</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I99">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B100" s="2">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100">
+        <v>22.6</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>14.4</v>
+      </c>
+      <c r="I100">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101">
+        <v>23.7</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>11.7</v>
+      </c>
+      <c r="I101">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B102" s="2">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B103" s="2">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103">
+        <v>21.4</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>13.4</v>
+      </c>
+      <c r="I103">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>7.1</v>
+      </c>
+      <c r="I105">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B106" s="2">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>13</v>
+      </c>
+      <c r="I106">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>13.7</v>
+      </c>
+      <c r="I107">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I108">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
+      </c>
+      <c r="H109">
+        <v>7.3</v>
+      </c>
+      <c r="I109">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B110" s="2">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>15</v>
+      </c>
+      <c r="I111">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B112" s="2">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>10.6</v>
+      </c>
+      <c r="I112">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B113" s="2">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>13.2</v>
+      </c>
+      <c r="I113">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>14</v>
+      </c>
+      <c r="I114">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B115" s="2">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B116" s="2">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>17</v>
+      </c>
+      <c r="I116">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118">
+        <v>23.3</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>7.5</v>
+      </c>
+      <c r="I118">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B119" s="2">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119">
+        <v>21.9</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>15.1</v>
+      </c>
+      <c r="I119">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120">
+        <v>24.6</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>13.6</v>
+      </c>
+      <c r="I120">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121">
+        <v>24</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122">
+        <v>24.7</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>11.5</v>
+      </c>
+      <c r="I122">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123">
+        <v>2</v>
+      </c>
+      <c r="H123">
+        <v>5.7</v>
+      </c>
+      <c r="I123">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B124" s="2">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124">
+        <v>23.6</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>18.8</v>
+      </c>
+      <c r="I124">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B125" s="2">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125">
+        <v>23.4</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>7.9</v>
+      </c>
+      <c r="I125">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B126" s="2">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126">
+        <v>23.5</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>18.3</v>
+      </c>
+      <c r="I126">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B127" s="2">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B128" s="2">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128">
+        <v>24.2</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>14.4</v>
+      </c>
+      <c r="I128">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B129" s="2">
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>4</v>
+      </c>
+      <c r="D129" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>11</v>
+      </c>
+      <c r="I129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B130" s="2">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130">
+        <v>22.3</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>18</v>
+      </c>
+      <c r="I130">
+        <v>14.6</v>
       </c>
     </row>
   </sheetData>
